--- a/テスト2013.xlsx
+++ b/テスト2013.xlsx
@@ -24,9 +24,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -355,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
@@ -368,6 +375,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -379,7 +391,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87A8BDFF-4AAD-44D9-BF6E-EBA07FBFF310}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B06AC367-C20C-468D-ABC1-5CD342FB087C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://selenium-excel-addin.jpn.org"/>
   </ds:schemaRefs>
